--- a/doc/スケジュール_チーム天然水.xlsx
+++ b/doc/スケジュール_チーム天然水.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731CD1D3-07E3-4E26-8301-4DE29F593F50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B51D982-0240-41B0-8F2F-D70FBBC6C8B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19660" yWindow="70" windowWidth="15300" windowHeight="9960" xr2:uid="{71D6CB85-ED0E-4824-99B5-C03EEAFD70C7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{71D6CB85-ED0E-4824-99B5-C03EEAFD70C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>DAO/servlet</t>
     <phoneticPr fontId="1"/>
@@ -108,6 +109,27 @@
   </si>
   <si>
     <t>js、テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部設計</t>
+    <rPh sb="0" eb="4">
+      <t>ガイブセッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>達成度</t>
+    <rPh sb="0" eb="3">
+      <t>タッセイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DB定義書 </t>
+    <rPh sb="2" eb="5">
+      <t>テイギショ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -116,7 +138,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="m/d\(aaa\)"/>
+    <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -186,7 +208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,13 +218,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -217,8 +239,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,14 +561,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129C62EC-94AD-418B-A75A-AD2DA4C2A938}">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
     <col min="3" max="3" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -555,6 +581,12 @@
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="3">
@@ -563,6 +595,8 @@
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="3">
@@ -571,6 +605,8 @@
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="3">
@@ -579,6 +615,8 @@
       <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="3">
@@ -587,12 +625,16 @@
       <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4">
         <v>45094</v>
       </c>
       <c r="C7" s="7"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -600,6 +642,8 @@
         <v>45095</v>
       </c>
       <c r="C8" s="7"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="2:12" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="3">
@@ -608,6 +652,8 @@
       <c r="C9" s="8" t="s">
         <v>2</v>
       </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="3">
@@ -616,6 +662,8 @@
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3">
@@ -624,6 +672,8 @@
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="2:12" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="3">
@@ -632,6 +682,8 @@
       <c r="C12" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3">
@@ -640,18 +692,24 @@
       <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="4">
         <v>45101</v>
       </c>
       <c r="C14" s="7"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4">
         <v>45102</v>
       </c>
       <c r="C15" s="7"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="3">
@@ -660,42 +718,78 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="3">
         <v>45104</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="3">
         <v>45105</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="3">
         <v>45106</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="3">
         <v>45107</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF58714-42C9-4CDB-86DB-5A35FAA4D991}">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/スケジュール_チーム天然水.xlsx
+++ b/doc/スケジュール_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B51D982-0240-41B0-8F2F-D70FBBC6C8B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA09B554-EC30-4EC6-A201-720F9C356380}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{71D6CB85-ED0E-4824-99B5-C03EEAFD70C7}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{71D6CB85-ED0E-4824-99B5-C03EEAFD70C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
   <si>
     <t>DAO/servlet</t>
     <phoneticPr fontId="1"/>
@@ -119,16 +119,331 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>達成度</t>
+    <t>LoginServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RegisterServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RefrigeratorServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecipeListServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecipeServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MainFoodListServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MainFoodServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CalendarServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyPageServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyPageEditServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserLikefoodDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserDislikefoodDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RefrigeratorDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RefrigeratorTextDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MainFoodDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecipeDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecipeCountDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecipeIngredientDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CalendarDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Users.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Refrigerators.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Refrigerator.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MainFoods.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MainFood.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Recipes.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Recipe.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calendars.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginUser.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calendar.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>register.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>refrigerator.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipeList.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipe.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mainFoodList.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mainFood.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calendar.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myPage.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myPageEdit.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>register.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>refrigerator.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipeList.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipe.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mainFoodList.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mainFood.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calendar.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myPage.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myPageEdit.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>register.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>refrigerator.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipeList.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipe.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mainFood.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calendar.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myPage.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myPageEdit.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗状況</t>
+    <rPh sb="0" eb="4">
+      <t>シンチョクジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日</t>
     <rPh sb="0" eb="3">
-      <t>タッセイド</t>
+      <t>カイシヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">DB定義書 </t>
-    <rPh sb="2" eb="5">
-      <t>テイギショ</t>
+    <t>期限</t>
+    <rPh sb="0" eb="2">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残日数</t>
+    <rPh sb="0" eb="3">
+      <t>ザンニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>完了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業前</t>
+  </si>
+  <si>
+    <t>作業中</t>
+  </si>
+  <si>
+    <t>作業前</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総数</t>
+    <rPh sb="0" eb="2">
+      <t>ソウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業中</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業前</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウマエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -140,7 +455,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +479,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +501,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -202,13 +531,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,11 +621,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -260,6 +708,923 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-50DE-43F0-B1AA-A8644CAAE359}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-50DE-43F0-B1AA-A8644CAAE359}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$66:$G$66</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>完了</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>作業中</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>作業前</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$67:$G$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50DE-43F0-B1AA-A8644CAAE359}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$66:$G$66</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>完了</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>作業中</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>作業前</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$68:$G$68</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.41935483870967744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11290322580645161</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46774193548387094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-50DE-43F0-B1AA-A8644CAAE359}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11465</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>17463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>652639</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>220486</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DEC363-D8E0-4811-ACC9-015321B037A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,7 +1927,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -581,12 +1946,8 @@
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="3">
@@ -595,8 +1956,8 @@
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="3">
@@ -605,8 +1966,8 @@
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="3">
@@ -615,8 +1976,8 @@
       <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="3">
@@ -625,16 +1986,16 @@
       <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4">
         <v>45094</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -642,8 +2003,8 @@
         <v>45095</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="2:12" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="3">
@@ -652,8 +2013,8 @@
       <c r="C9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="3">
@@ -662,8 +2023,8 @@
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3">
@@ -672,8 +2033,8 @@
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="2:12" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="3">
@@ -682,8 +2043,8 @@
       <c r="C12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3">
@@ -692,24 +2053,24 @@
       <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="4">
         <v>45101</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4">
         <v>45102</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="3">
@@ -718,8 +2079,8 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="3">
@@ -728,8 +2089,8 @@
       <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="3">
@@ -738,8 +2099,8 @@
       <c r="C18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="3">
@@ -748,8 +2109,8 @@
       <c r="C19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="3">
@@ -758,8 +2119,8 @@
       <c r="C20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -770,26 +2131,2561 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF58714-42C9-4CDB-86DB-5A35FAA4D991}">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
+      <c r="D2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="20">
+        <v>45089</v>
+      </c>
+      <c r="I2" s="20">
+        <v>45090</v>
+      </c>
+      <c r="J2" s="20">
+        <v>45091</v>
+      </c>
+      <c r="K2" s="20">
+        <v>45092</v>
+      </c>
+      <c r="L2" s="20">
+        <v>45093</v>
+      </c>
+      <c r="M2" s="20">
+        <v>45094</v>
+      </c>
+      <c r="N2" s="20">
+        <v>45095</v>
+      </c>
+      <c r="O2" s="20">
+        <v>45096</v>
+      </c>
+      <c r="P2" s="20">
+        <v>45097</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>45098</v>
+      </c>
+      <c r="R2" s="20">
+        <v>45099</v>
+      </c>
+      <c r="S2" s="20">
+        <v>45100</v>
+      </c>
+      <c r="T2" s="20">
+        <v>45101</v>
+      </c>
+      <c r="U2" s="20">
+        <v>45102</v>
+      </c>
+      <c r="V2" s="20">
+        <v>45103</v>
+      </c>
+      <c r="W2" s="20">
+        <v>45104</v>
+      </c>
+      <c r="X2" s="20">
+        <v>45105</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>45106</v>
+      </c>
+      <c r="Z2" s="20">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="15">
+        <v>45089</v>
+      </c>
+      <c r="F3" s="15">
+        <v>45090</v>
+      </c>
+      <c r="G3" s="11">
+        <f>NETWORKDAYS.INTL(E3,F3,1)</f>
+        <v>2</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="13"/>
+      <c r="C4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="15">
+        <v>45089</v>
+      </c>
+      <c r="F4" s="15">
+        <v>45090</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" ref="G4:G64" si="0">NETWORKDAYS.INTL(E4,F4,1)</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="13"/>
+      <c r="C5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="15">
+        <v>45089</v>
+      </c>
+      <c r="F5" s="15">
+        <v>45090</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="13"/>
+      <c r="C6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="15">
+        <v>45089</v>
+      </c>
+      <c r="F6" s="15">
+        <v>45090</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="13"/>
+      <c r="C7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="15">
+        <v>45089</v>
+      </c>
+      <c r="F7" s="15">
+        <v>45090</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="13"/>
+      <c r="C8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="15">
+        <v>45089</v>
+      </c>
+      <c r="F8" s="15">
+        <v>45090</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="13"/>
+      <c r="C9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="15">
+        <v>45089</v>
+      </c>
+      <c r="F9" s="15">
+        <v>45090</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="13"/>
+      <c r="C10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="15">
+        <v>45089</v>
+      </c>
+      <c r="F10" s="15">
+        <v>45090</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="13"/>
+      <c r="C11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="15">
+        <v>45089</v>
+      </c>
+      <c r="F11" s="15">
+        <v>45090</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="13"/>
+      <c r="C12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="15">
+        <v>45089</v>
+      </c>
+      <c r="F12" s="15">
+        <v>45090</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="13"/>
+      <c r="C13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="15">
+        <v>45089</v>
+      </c>
+      <c r="F13" s="15">
+        <v>45090</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F14" s="15">
+        <v>45091</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="13"/>
+      <c r="C15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F15" s="15">
+        <v>45091</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="13"/>
+      <c r="C16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F16" s="15">
+        <v>45091</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="13"/>
+      <c r="C17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F17" s="15">
+        <v>45091</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="13"/>
+      <c r="C18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F18" s="15">
+        <v>45091</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="13"/>
+      <c r="C19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F19" s="15">
+        <v>45091</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="13"/>
+      <c r="C20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F20" s="15">
+        <v>45091</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="13"/>
+      <c r="C21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F21" s="15">
+        <v>45091</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="13"/>
+      <c r="C22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F22" s="15">
+        <v>45091</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="13"/>
+      <c r="C23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F23" s="15">
+        <v>45091</v>
+      </c>
+      <c r="G23" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F24" s="15">
+        <v>45092</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="13"/>
+      <c r="C25" s="11" t="s">
         <v>15</v>
       </c>
+      <c r="D25" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F25" s="15">
+        <v>45096</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="13"/>
+      <c r="C26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F26" s="15">
+        <v>45092</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="13"/>
+      <c r="C27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F27" s="15">
+        <v>45095</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="13"/>
+      <c r="C28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F28" s="15">
+        <v>45092</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="13"/>
+      <c r="C29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F29" s="15">
+        <v>45093</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="13"/>
+      <c r="C30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F30" s="15">
+        <v>45094</v>
+      </c>
+      <c r="G30" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="13"/>
+      <c r="C31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F31" s="15">
+        <v>45096</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="13"/>
+      <c r="C32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F32" s="15">
+        <v>45096</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="13"/>
+      <c r="C33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F33" s="15">
+        <v>45096</v>
+      </c>
+      <c r="G33" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F34" s="15">
+        <v>45097</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="13"/>
+      <c r="C35" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F35" s="15">
+        <v>45097</v>
+      </c>
+      <c r="G35" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="13"/>
+      <c r="C36" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F36" s="15">
+        <v>45097</v>
+      </c>
+      <c r="G36" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="13"/>
+      <c r="C37" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F37" s="15">
+        <v>45097</v>
+      </c>
+      <c r="G37" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="13"/>
+      <c r="C38" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F38" s="15">
+        <v>45097</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="13"/>
+      <c r="C39" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F39" s="15">
+        <v>45097</v>
+      </c>
+      <c r="G39" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="13"/>
+      <c r="C40" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F40" s="15">
+        <v>45097</v>
+      </c>
+      <c r="G40" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="13"/>
+      <c r="C41" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F41" s="15">
+        <v>45097</v>
+      </c>
+      <c r="G41" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="13"/>
+      <c r="C42" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F42" s="15">
+        <v>45097</v>
+      </c>
+      <c r="G42" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="13"/>
+      <c r="C43" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F43" s="15">
+        <v>45097</v>
+      </c>
+      <c r="G43" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F44" s="15">
+        <v>45098</v>
+      </c>
+      <c r="G44" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="13"/>
+      <c r="C45" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F45" s="15">
+        <v>45098</v>
+      </c>
+      <c r="G45" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="13"/>
+      <c r="C46" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F46" s="15">
+        <v>45098</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="13"/>
+      <c r="C47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F47" s="15">
+        <v>45098</v>
+      </c>
+      <c r="G47" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="13"/>
+      <c r="C48" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F48" s="15">
+        <v>45098</v>
+      </c>
+      <c r="G48" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="13"/>
+      <c r="C49" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F49" s="15">
+        <v>45098</v>
+      </c>
+      <c r="G49" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="13"/>
+      <c r="C50" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F50" s="15">
+        <v>45098</v>
+      </c>
+      <c r="G50" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="13"/>
+      <c r="C51" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F51" s="15">
+        <v>45098</v>
+      </c>
+      <c r="G51" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="13"/>
+      <c r="C52" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F52" s="15">
+        <v>45098</v>
+      </c>
+      <c r="G52" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="13"/>
+      <c r="C53" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F53" s="15">
+        <v>45098</v>
+      </c>
+      <c r="G53" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="13"/>
+      <c r="C54" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" s="15">
+        <v>45096</v>
+      </c>
+      <c r="F54" s="15">
+        <v>45098</v>
+      </c>
+      <c r="G54" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+    </row>
+    <row r="55" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="15">
+        <v>45099</v>
+      </c>
+      <c r="F55" s="15">
+        <v>45104</v>
+      </c>
+      <c r="G55" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="13"/>
+      <c r="C56" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="15">
+        <v>45099</v>
+      </c>
+      <c r="F56" s="15">
+        <v>45104</v>
+      </c>
+      <c r="G56" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+    </row>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="13"/>
+      <c r="C57" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="15">
+        <v>45099</v>
+      </c>
+      <c r="F57" s="15">
+        <v>45104</v>
+      </c>
+      <c r="G57" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+    </row>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="13"/>
+      <c r="C58" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="15">
+        <v>45099</v>
+      </c>
+      <c r="F58" s="15">
+        <v>45104</v>
+      </c>
+      <c r="G58" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="13"/>
+      <c r="C59" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="15">
+        <v>45099</v>
+      </c>
+      <c r="F59" s="15">
+        <v>45104</v>
+      </c>
+      <c r="G59" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="13"/>
+      <c r="C60" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="15">
+        <v>45099</v>
+      </c>
+      <c r="F60" s="15">
+        <v>45104</v>
+      </c>
+      <c r="G60" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="13"/>
+      <c r="C61" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="15">
+        <v>45099</v>
+      </c>
+      <c r="F61" s="15">
+        <v>45104</v>
+      </c>
+      <c r="G61" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="11"/>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="13"/>
+      <c r="C62" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="15">
+        <v>45099</v>
+      </c>
+      <c r="F62" s="15">
+        <v>45104</v>
+      </c>
+      <c r="G62" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11"/>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="13"/>
+      <c r="C63" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="15">
+        <v>45099</v>
+      </c>
+      <c r="F63" s="15">
+        <v>45104</v>
+      </c>
+      <c r="G63" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="11"/>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="14"/>
+      <c r="C64" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="15">
+        <v>45099</v>
+      </c>
+      <c r="F64" s="15">
+        <v>45104</v>
+      </c>
+      <c r="G64" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+    </row>
+    <row r="66" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E66" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E67" s="11">
+        <f>COUNTIF(D3:D64,"完了")</f>
+        <v>26</v>
+      </c>
+      <c r="F67" s="11">
+        <f>COUNTIF(D3:D64,"作業中")</f>
+        <v>7</v>
+      </c>
+      <c r="G67" s="11">
+        <f>COUNTIF(D3:D64,"作業前")</f>
+        <v>29</v>
+      </c>
+      <c r="H67" s="11">
+        <f>COUNTA(C3:C64)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E68" s="16">
+        <f>E67/H67</f>
+        <v>0.41935483870967744</v>
+      </c>
+      <c r="F68" s="16">
+        <f>F67/H67</f>
+        <v>0.11290322580645161</v>
+      </c>
+      <c r="G68" s="16">
+        <f>G67/H67</f>
+        <v>0.46774193548387094</v>
+      </c>
+      <c r="H68" s="17">
+        <f>E68+F68+G68</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+    </row>
+    <row r="72" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+    </row>
+    <row r="73" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="24"/>
+    </row>
+    <row r="74" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D3:D64">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="作業前">
+      <formula>NOT(ISERROR(SEARCH("作業前",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="作業中">
+      <formula>NOT(ISERROR(SEARCH("作業中",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:Z13">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(H$2&gt;=$E3, H$2&lt;=F$3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D64" xr:uid="{AC32A6D3-ADF1-41A5-BDC7-7D29FD37710D}">
+      <formula1>"完了,作業中,作業前"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/スケジュール_チーム天然水.xlsx
+++ b/doc/スケジュール_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA09B554-EC30-4EC6-A201-720F9C356380}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668A4048-7ABC-4738-A777-A0B0CBC16CA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{71D6CB85-ED0E-4824-99B5-C03EEAFD70C7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{71D6CB85-ED0E-4824-99B5-C03EEAFD70C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -584,7 +584,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -651,16 +651,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -757,6 +751,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0F78-4B77-A0C3-8E301422CE63}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -827,13 +826,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -861,6 +860,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0F78-4B77-A0C3-8E301422CE63}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -876,6 +880,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0F78-4B77-A0C3-8E301422CE63}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -891,6 +900,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-0F78-4B77-A0C3-8E301422CE63}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -916,13 +930,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.41935483870967744</c:v>
+                  <c:v>0.45161290322580644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11290322580645161</c:v>
+                  <c:v>0.14516129032258066</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46774193548387094</c:v>
+                  <c:v>0.40322580645161288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1946,8 +1960,6 @@
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="3">
@@ -1956,8 +1968,6 @@
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="3">
@@ -1966,8 +1976,6 @@
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="3">
@@ -1976,8 +1984,6 @@
       <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="3">
@@ -1986,16 +1992,12 @@
       <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4">
         <v>45094</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -2003,8 +2005,6 @@
         <v>45095</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="2:12" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="3">
@@ -2013,8 +2013,6 @@
       <c r="C9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="3">
@@ -2023,8 +2021,6 @@
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3">
@@ -2033,8 +2029,6 @@
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="2:12" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="3">
@@ -2043,8 +2037,6 @@
       <c r="C12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3">
@@ -2053,24 +2045,18 @@
       <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="4">
         <v>45101</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4">
         <v>45102</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="3">
@@ -2079,48 +2065,38 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="3">
         <v>45104</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="3">
         <v>45105</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="3">
         <v>45106</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="3">
         <v>45107</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2131,10 +2107,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF58714-42C9-4CDB-86DB-5A35FAA4D991}">
-  <dimension ref="B2:Z74"/>
+  <dimension ref="B2:Z73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2239,7 +2215,7 @@
         <f>NETWORKDAYS.INTL(E3,F3,1)</f>
         <v>2</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -2277,7 +2253,7 @@
         <f t="shared" ref="G4:G64" si="0">NETWORKDAYS.INTL(E4,F4,1)</f>
         <v>2</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -2315,7 +2291,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -2353,7 +2329,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -2391,7 +2367,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -2429,7 +2405,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -2467,7 +2443,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -2505,7 +2481,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -2543,7 +2519,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H11" s="25"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -2581,7 +2557,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H12" s="25"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -2619,7 +2595,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -3067,7 +3043,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E25" s="15">
         <v>45091</v>
@@ -3333,7 +3309,7 @@
         <v>22</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E32" s="15">
         <v>45091</v>
@@ -3371,7 +3347,7 @@
         <v>23</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E33" s="15">
         <v>45091</v>
@@ -3449,7 +3425,7 @@
         <v>46</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E35" s="15">
         <v>45096</v>
@@ -4604,15 +4580,15 @@
     <row r="67" spans="5:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E67" s="11">
         <f>COUNTIF(D3:D64,"完了")</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F67" s="11">
         <f>COUNTIF(D3:D64,"作業中")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G67" s="11">
         <f>COUNTIF(D3:D64,"作業前")</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H67" s="11">
         <f>COUNTA(C3:C64)</f>
@@ -4622,44 +4598,26 @@
     <row r="68" spans="5:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E68" s="16">
         <f>E67/H67</f>
-        <v>0.41935483870967744</v>
+        <v>0.45161290322580644</v>
       </c>
       <c r="F68" s="16">
         <f>F67/H67</f>
-        <v>0.11290322580645161</v>
+        <v>0.14516129032258066</v>
       </c>
       <c r="G68" s="16">
         <f>G67/H67</f>
-        <v>0.46774193548387094</v>
+        <v>0.40322580645161288</v>
       </c>
       <c r="H68" s="17">
         <f>E68+F68+G68</f>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-    </row>
-    <row r="72" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-    </row>
     <row r="73" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="24"/>
-    </row>
-    <row r="74" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/スケジュール_チーム天然水.xlsx
+++ b/doc/スケジュール_チーム天然水.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668A4048-7ABC-4738-A777-A0B0CBC16CA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37B6E3B-78BC-412D-9AEB-0E714501B247}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{71D6CB85-ED0E-4824-99B5-C03EEAFD70C7}"/>
   </bookViews>
@@ -829,10 +829,10 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -933,10 +933,10 @@
                   <c:v>0.45161290322580644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14516129032258066</c:v>
+                  <c:v>0.19354838709677419</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40322580645161288</c:v>
+                  <c:v>0.35483870967741937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1940,7 +1940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129C62EC-94AD-418B-A75A-AD2DA4C2A938}">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -2109,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF58714-42C9-4CDB-86DB-5A35FAA4D991}">
   <dimension ref="B2:Z73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3501,7 +3501,7 @@
         <v>48</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E37" s="15">
         <v>45096</v>
@@ -3539,7 +3539,7 @@
         <v>49</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E38" s="15">
         <v>45096</v>
@@ -3653,7 +3653,7 @@
         <v>52</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E41" s="15">
         <v>45096</v>
@@ -4584,11 +4584,11 @@
       </c>
       <c r="F67" s="11">
         <f>COUNTIF(D3:D64,"作業中")</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G67" s="11">
         <f>COUNTIF(D3:D64,"作業前")</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H67" s="11">
         <f>COUNTA(C3:C64)</f>
@@ -4602,11 +4602,11 @@
       </c>
       <c r="F68" s="16">
         <f>F67/H67</f>
-        <v>0.14516129032258066</v>
+        <v>0.19354838709677419</v>
       </c>
       <c r="G68" s="16">
         <f>G67/H67</f>
-        <v>0.40322580645161288</v>
+        <v>0.35483870967741937</v>
       </c>
       <c r="H68" s="17">
         <f>E68+F68+G68</f>

--- a/doc/スケジュール_チーム天然水.xlsx
+++ b/doc/スケジュール_チーム天然水.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37B6E3B-78BC-412D-9AEB-0E714501B247}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC083B11-4D0B-49A2-805E-DC5ADF3C724B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{71D6CB85-ED0E-4824-99B5-C03EEAFD70C7}"/>
   </bookViews>
@@ -826,10 +826,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>22</c:v>
@@ -930,10 +930,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.45161290322580644</c:v>
+                  <c:v>0.5161290322580645</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19354838709677419</c:v>
+                  <c:v>0.12903225806451613</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.35483870967741937</c:v>
@@ -2109,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF58714-42C9-4CDB-86DB-5A35FAA4D991}">
   <dimension ref="B2:Z73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3141,7 +3141,7 @@
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
+      <c r="R27" s="17"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
@@ -3387,7 +3387,7 @@
         <v>45</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E34" s="15">
         <v>45096</v>
@@ -3425,7 +3425,7 @@
         <v>46</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E35" s="15">
         <v>45096</v>
@@ -3523,7 +3523,9 @@
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
+      <c r="R37" s="17">
+        <v>0.3</v>
+      </c>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
@@ -3539,7 +3541,7 @@
         <v>49</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E38" s="15">
         <v>45096</v>
@@ -3577,7 +3579,7 @@
         <v>50</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E39" s="15">
         <v>45096</v>
@@ -3615,7 +3617,7 @@
         <v>51</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E40" s="15">
         <v>45096</v>
@@ -3675,7 +3677,9 @@
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
+      <c r="R41" s="17">
+        <v>0.5</v>
+      </c>
       <c r="S41" s="11"/>
       <c r="T41" s="11"/>
       <c r="U41" s="11"/>
@@ -3713,7 +3717,9 @@
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
+      <c r="R42" s="17">
+        <v>0.75</v>
+      </c>
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
@@ -3729,7 +3735,7 @@
         <v>54</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E43" s="15">
         <v>45096</v>
@@ -3751,7 +3757,9 @@
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
+      <c r="R43" s="17">
+        <v>0.5</v>
+      </c>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
       <c r="U43" s="11"/>
@@ -4580,11 +4588,11 @@
     <row r="67" spans="5:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E67" s="11">
         <f>COUNTIF(D3:D64,"完了")</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F67" s="11">
         <f>COUNTIF(D3:D64,"作業中")</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G67" s="11">
         <f>COUNTIF(D3:D64,"作業前")</f>
@@ -4598,11 +4606,11 @@
     <row r="68" spans="5:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E68" s="16">
         <f>E67/H67</f>
-        <v>0.45161290322580644</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="F68" s="16">
         <f>F67/H67</f>
-        <v>0.19354838709677419</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="G68" s="16">
         <f>G67/H67</f>

--- a/doc/スケジュール_チーム天然水.xlsx
+++ b/doc/スケジュール_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC083B11-4D0B-49A2-805E-DC5ADF3C724B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC472C0-357B-4CEC-B17F-F52A86B3222C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{71D6CB85-ED0E-4824-99B5-C03EEAFD70C7}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{71D6CB85-ED0E-4824-99B5-C03EEAFD70C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -826,13 +826,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,13 +930,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.5161290322580645</c:v>
+                  <c:v>0.54838709677419351</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.12903225806451613</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35483870967741937</c:v>
+                  <c:v>0.32258064516129031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2109,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF58714-42C9-4CDB-86DB-5A35FAA4D991}">
   <dimension ref="B2:Z73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="56" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3157,7 +3157,7 @@
         <v>18</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E28" s="15">
         <v>45091</v>
@@ -3486,7 +3486,9 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
+      <c r="S36" s="17">
+        <v>0.3</v>
+      </c>
       <c r="T36" s="11"/>
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
@@ -3526,7 +3528,9 @@
       <c r="R37" s="17">
         <v>0.3</v>
       </c>
-      <c r="S37" s="11"/>
+      <c r="S37" s="17">
+        <v>0.5</v>
+      </c>
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
@@ -3564,7 +3568,9 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
+      <c r="S38" s="17">
+        <v>0.7</v>
+      </c>
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
@@ -3680,7 +3686,9 @@
       <c r="R41" s="17">
         <v>0.5</v>
       </c>
-      <c r="S41" s="11"/>
+      <c r="S41" s="17">
+        <v>0.2</v>
+      </c>
       <c r="T41" s="11"/>
       <c r="U41" s="11"/>
       <c r="V41" s="11"/>
@@ -3720,7 +3728,9 @@
       <c r="R42" s="17">
         <v>0.75</v>
       </c>
-      <c r="S42" s="11"/>
+      <c r="S42" s="17">
+        <v>0.75</v>
+      </c>
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
@@ -3760,7 +3770,9 @@
       <c r="R43" s="17">
         <v>0.5</v>
       </c>
-      <c r="S43" s="11"/>
+      <c r="S43" s="17">
+        <v>0.5</v>
+      </c>
       <c r="T43" s="11"/>
       <c r="U43" s="11"/>
       <c r="V43" s="11"/>
@@ -3777,7 +3789,7 @@
         <v>55</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E44" s="15">
         <v>45096</v>
@@ -3800,7 +3812,9 @@
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
+      <c r="S44" s="17">
+        <v>0.8</v>
+      </c>
       <c r="T44" s="11"/>
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
@@ -4005,7 +4019,7 @@
         <v>61</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E50" s="15">
         <v>45096</v>
@@ -4588,7 +4602,7 @@
     <row r="67" spans="5:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E67" s="11">
         <f>COUNTIF(D3:D64,"完了")</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F67" s="11">
         <f>COUNTIF(D3:D64,"作業中")</f>
@@ -4596,7 +4610,7 @@
       </c>
       <c r="G67" s="11">
         <f>COUNTIF(D3:D64,"作業前")</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H67" s="11">
         <f>COUNTA(C3:C64)</f>
@@ -4606,7 +4620,7 @@
     <row r="68" spans="5:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E68" s="16">
         <f>E67/H67</f>
-        <v>0.5161290322580645</v>
+        <v>0.54838709677419351</v>
       </c>
       <c r="F68" s="16">
         <f>F67/H67</f>
@@ -4614,7 +4628,7 @@
       </c>
       <c r="G68" s="16">
         <f>G67/H67</f>
-        <v>0.35483870967741937</v>
+        <v>0.32258064516129031</v>
       </c>
       <c r="H68" s="17">
         <f>E68+F68+G68</f>

--- a/doc/スケジュール_チーム天然水.xlsx
+++ b/doc/スケジュール_チーム天然水.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC472C0-357B-4CEC-B17F-F52A86B3222C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D671FA1-9D52-4AF9-BBA1-675E28997245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{71D6CB85-ED0E-4824-99B5-C03EEAFD70C7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{71D6CB85-ED0E-4824-99B5-C03EEAFD70C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="137">
   <si>
     <t>DAO/servlet</t>
     <phoneticPr fontId="1"/>
@@ -444,6 +445,345 @@
     <t>作業前</t>
     <rPh sb="0" eb="3">
       <t>サギョウマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピ検索</t>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピ使用回数カウント機能</t>
+    <rPh sb="3" eb="7">
+      <t>シヨウカイスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピ使用回数リセット機能</t>
+    <rPh sb="3" eb="7">
+      <t>シヨウカイスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピ使用時食材在庫管理機能</t>
+    <rPh sb="3" eb="6">
+      <t>シヨウジ</t>
+    </rPh>
+    <rPh sb="6" eb="14">
+      <t>ショクザイザイコカンリキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主要食材詳細表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主要食材登録機能</t>
+    <rPh sb="0" eb="8">
+      <t>シュヨウショクザイトウロクキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主要食材個数編集機能</t>
+    <rPh sb="0" eb="2">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="10">
+      <t>ショクザイコスウヘンシュウキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他食材のキーワード登録</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン・ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録</t>
+  </si>
+  <si>
+    <t>ユーザー情報編集・削除</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日割りで使用レシピの履歴を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自炊費と外食費の差額を表示する機能</t>
+    <rPh sb="0" eb="2">
+      <t>ジスイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガイショク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サガク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idpw登録</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好き嫌い登録</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キラ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷蔵庫</t>
+    <rPh sb="0" eb="3">
+      <t>レイゾウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食材管理</t>
+    <rPh sb="0" eb="4">
+      <t>ショクザイカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個数編集</t>
+    <rPh sb="0" eb="4">
+      <t>コスウヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーワード登録</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主要食材検索</t>
+    <rPh sb="0" eb="4">
+      <t>シュヨウショクザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダム検索</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワンパン検索</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫管理</t>
+    <rPh sb="0" eb="4">
+      <t>ザイコカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細表示</t>
+    <rPh sb="0" eb="4">
+      <t>ショウサイヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピ履歴</t>
+    <rPh sb="3" eb="5">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差額表示</t>
+    <rPh sb="0" eb="4">
+      <t>サガクヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能詳細</t>
+    <rPh sb="0" eb="4">
+      <t>キノウショウサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -452,8 +792,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
+    <numFmt numFmtId="181" formatCode="m/d"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -508,7 +849,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -575,6 +916,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -584,7 +949,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,12 +1022,63 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2109,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF58714-42C9-4CDB-86DB-5A35FAA4D991}">
   <dimension ref="B2:Z73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="56" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A33" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4644,18 +5060,18 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D3:D64">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="作業前">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="作業前">
       <formula>NOT(ISERROR(SEARCH("作業前",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="作業中">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="作業中">
       <formula>NOT(ISERROR(SEARCH("作業中",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:Z13">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(H$2&gt;=$E3, H$2&lt;=F$3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4668,4 +5084,351 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61422AA3-A2FE-4032-B671-2414630C8DC3}">
+  <dimension ref="B2:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="26">
+        <v>45103</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="13"/>
+      <c r="C10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="24"/>
+      <c r="C11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="13"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="13"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="13"/>
+      <c r="C15" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="13"/>
+      <c r="C16" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="24"/>
+      <c r="C17" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="14"/>
+      <c r="C20" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="H3:H20">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="作業中">
+      <formula>NOT(ISERROR(SEARCH("作業中",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="作業前">
+      <formula>NOT(ISERROR(SEARCH("作業前",H3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H20" xr:uid="{9749A944-A8CB-4FF8-AC0B-DEC6B8EB45F6}">
+      <formula1>"完了,90%,80%,70%,60%,50%,40%,30%,20%,10%"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/スケジュール_チーム天然水.xlsx
+++ b/doc/スケジュール_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D671FA1-9D52-4AF9-BBA1-675E28997245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0433E3F9-0BEA-4F19-A26A-5474135BF58D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{71D6CB85-ED0E-4824-99B5-C03EEAFD70C7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{71D6CB85-ED0E-4824-99B5-C03EEAFD70C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="137">
   <si>
     <t>DAO/servlet</t>
     <phoneticPr fontId="1"/>
@@ -794,7 +794,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
-    <numFmt numFmtId="181" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="m/d"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1028,7 +1028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1036,7 +1036,7 @@
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1048,27 +1048,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1242,13 +1221,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,13 +1325,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.54838709677419351</c:v>
+                  <c:v>0.72580645161290325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12903225806451613</c:v>
+                  <c:v>9.6774193548387094E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32258064516129031</c:v>
+                  <c:v>0.17741935483870969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2525,8 +2504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF58714-42C9-4CDB-86DB-5A35FAA4D991}">
   <dimension ref="B2:Z73"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3687,7 +3666,7 @@
         <v>21</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E31" s="15">
         <v>45091</v>
@@ -3763,7 +3742,7 @@
         <v>23</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E33" s="15">
         <v>45091</v>
@@ -3879,7 +3858,7 @@
         <v>47</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E36" s="15">
         <v>45096</v>
@@ -3961,7 +3940,7 @@
         <v>49</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E38" s="15">
         <v>45096</v>
@@ -4119,7 +4098,7 @@
         <v>53</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E42" s="15">
         <v>45096</v>
@@ -4161,7 +4140,7 @@
         <v>54</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E43" s="15">
         <v>45096</v>
@@ -4205,7 +4184,7 @@
         <v>55</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E44" s="15">
         <v>45096</v>
@@ -4245,7 +4224,7 @@
         <v>56</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E45" s="15">
         <v>45096</v>
@@ -4283,7 +4262,7 @@
         <v>57</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E46" s="15">
         <v>45096</v>
@@ -4321,7 +4300,7 @@
         <v>58</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E47" s="15">
         <v>45096</v>
@@ -4473,7 +4452,7 @@
         <v>62</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E51" s="15">
         <v>45096</v>
@@ -4511,7 +4490,7 @@
         <v>63</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E52" s="15">
         <v>45096</v>
@@ -4549,7 +4528,7 @@
         <v>64</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E53" s="15">
         <v>45096</v>
@@ -4587,7 +4566,7 @@
         <v>65</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E54" s="15">
         <v>45096</v>
@@ -4893,7 +4872,7 @@
         <v>73</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E62" s="15">
         <v>45099</v>
@@ -5018,15 +4997,15 @@
     <row r="67" spans="5:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E67" s="11">
         <f>COUNTIF(D3:D64,"完了")</f>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F67" s="11">
         <f>COUNTIF(D3:D64,"作業中")</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G67" s="11">
         <f>COUNTIF(D3:D64,"作業前")</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H67" s="11">
         <f>COUNTA(C3:C64)</f>
@@ -5036,15 +5015,15 @@
     <row r="68" spans="5:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E68" s="16">
         <f>E67/H67</f>
-        <v>0.54838709677419351</v>
+        <v>0.72580645161290325</v>
       </c>
       <c r="F68" s="16">
         <f>F67/H67</f>
-        <v>0.12903225806451613</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="G68" s="16">
         <f>G67/H67</f>
-        <v>0.32258064516129031</v>
+        <v>0.17741935483870969</v>
       </c>
       <c r="H68" s="17">
         <f>E68+F68+G68</f>
@@ -5060,18 +5039,18 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D3:D64">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="作業前">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="作業前">
       <formula>NOT(ISERROR(SEARCH("作業前",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="作業中">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="作業中">
       <formula>NOT(ISERROR(SEARCH("作業中",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:Z13">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND(H$2&gt;=$E3, H$2&lt;=F$3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5090,8 +5069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61422AA3-A2FE-4032-B671-2414630C8DC3}">
   <dimension ref="B2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5157,8 +5136,8 @@
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="17">
-        <v>0.9</v>
+      <c r="H4" s="17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5240,7 +5219,9 @@
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="13"/>
@@ -5255,7 +5236,9 @@
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="24"/>
@@ -5409,7 +5392,9 @@
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="H20" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/スケジュール_チーム天然水.xlsx
+++ b/doc/スケジュール_チーム天然水.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0433E3F9-0BEA-4F19-A26A-5474135BF58D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AB9B8C-532B-4334-8AC5-A2FD675C4814}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{71D6CB85-ED0E-4824-99B5-C03EEAFD70C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="132">
   <si>
     <t>DAO/servlet</t>
     <phoneticPr fontId="1"/>
@@ -336,10 +336,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>register.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>refrigerator.js</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -352,19 +348,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mainFood.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>calendar.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>myPage.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>myPageEdit.js</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -415,10 +399,6 @@
   </si>
   <si>
     <t>作業中</t>
-  </si>
-  <si>
-    <t>作業前</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>総数</t>
@@ -1040,7 +1020,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1054,7 +1034,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1199,7 +1179,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$E$66:$G$66</c:f>
+              <c:f>Sheet2!$E$62:$G$62</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1216,18 +1196,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$67:$G$67</c:f>
+              <c:f>Sheet2!$E$63:$G$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,7 +1283,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$E$66:$G$66</c:f>
+              <c:f>Sheet2!$E$62:$G$62</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1320,18 +1300,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$68:$G$68</c:f>
+              <c:f>Sheet2!$E$64:$G$64</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.72580645161290325</c:v>
+                  <c:v>0.86206896551724133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6774193548387094E-2</c:v>
+                  <c:v>0.10344827586206896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17741935483870969</c:v>
+                  <c:v>3.4482758620689655E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,13 +1981,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>11465</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>652639</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>220486</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2502,10 +2482,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF58714-42C9-4CDB-86DB-5A35FAA4D991}">
-  <dimension ref="B2:Z73"/>
+  <dimension ref="B2:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2521,16 +2501,16 @@
         <v>13</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H2" s="20">
         <v>45089</v>
@@ -2592,13 +2572,13 @@
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E3" s="15">
         <v>45089</v>
@@ -2636,7 +2616,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E4" s="15">
         <v>45089</v>
@@ -2645,7 +2625,7 @@
         <v>45090</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" ref="G4:G64" si="0">NETWORKDAYS.INTL(E4,F4,1)</f>
+        <f t="shared" ref="G4:G60" si="0">NETWORKDAYS.INTL(E4,F4,1)</f>
         <v>2</v>
       </c>
       <c r="H4" s="11"/>
@@ -2674,7 +2654,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E5" s="15">
         <v>45089</v>
@@ -2712,7 +2692,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E6" s="15">
         <v>45089</v>
@@ -2750,7 +2730,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E7" s="15">
         <v>45089</v>
@@ -2788,7 +2768,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E8" s="15">
         <v>45089</v>
@@ -2826,7 +2806,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E9" s="15">
         <v>45089</v>
@@ -2864,7 +2844,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E10" s="15">
         <v>45089</v>
@@ -2902,7 +2882,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E11" s="15">
         <v>45089</v>
@@ -2940,7 +2920,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E12" s="15">
         <v>45089</v>
@@ -2978,7 +2958,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E13" s="15">
         <v>45089</v>
@@ -3012,13 +2992,13 @@
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E14" s="15">
         <v>45091</v>
@@ -3056,7 +3036,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E15" s="15">
         <v>45091</v>
@@ -3094,7 +3074,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E16" s="15">
         <v>45091</v>
@@ -3132,7 +3112,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E17" s="15">
         <v>45091</v>
@@ -3170,7 +3150,7 @@
         <v>28</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E18" s="15">
         <v>45091</v>
@@ -3208,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E19" s="15">
         <v>45091</v>
@@ -3246,7 +3226,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E20" s="15">
         <v>45091</v>
@@ -3284,7 +3264,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E21" s="15">
         <v>45091</v>
@@ -3322,7 +3302,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E22" s="15">
         <v>45091</v>
@@ -3360,7 +3340,7 @@
         <v>33</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E23" s="15">
         <v>45091</v>
@@ -3400,7 +3380,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E24" s="15">
         <v>45091</v>
@@ -3438,7 +3418,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E25" s="15">
         <v>45091</v>
@@ -3476,7 +3456,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E26" s="15">
         <v>45091</v>
@@ -3514,7 +3494,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E27" s="15">
         <v>45091</v>
@@ -3552,7 +3532,7 @@
         <v>18</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E28" s="15">
         <v>45091</v>
@@ -3590,7 +3570,7 @@
         <v>19</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E29" s="15">
         <v>45091</v>
@@ -3628,7 +3608,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E30" s="15">
         <v>45091</v>
@@ -3666,7 +3646,7 @@
         <v>21</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E31" s="15">
         <v>45091</v>
@@ -3704,7 +3684,7 @@
         <v>22</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E32" s="15">
         <v>45091</v>
@@ -3742,7 +3722,7 @@
         <v>23</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E33" s="15">
         <v>45091</v>
@@ -3782,7 +3762,7 @@
         <v>45</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E34" s="15">
         <v>45096</v>
@@ -3820,7 +3800,7 @@
         <v>46</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E35" s="15">
         <v>45096</v>
@@ -3858,7 +3838,7 @@
         <v>47</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E36" s="15">
         <v>45096</v>
@@ -3898,7 +3878,7 @@
         <v>48</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E37" s="15">
         <v>45096</v>
@@ -3940,7 +3920,7 @@
         <v>49</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E38" s="15">
         <v>45096</v>
@@ -3980,7 +3960,7 @@
         <v>50</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E39" s="15">
         <v>45096</v>
@@ -4018,7 +3998,7 @@
         <v>51</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E40" s="15">
         <v>45096</v>
@@ -4056,7 +4036,7 @@
         <v>52</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E41" s="15">
         <v>45096</v>
@@ -4098,7 +4078,7 @@
         <v>53</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E42" s="15">
         <v>45096</v>
@@ -4140,7 +4120,7 @@
         <v>54</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E43" s="15">
         <v>45096</v>
@@ -4184,7 +4164,7 @@
         <v>55</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E44" s="15">
         <v>45096</v>
@@ -4224,7 +4204,7 @@
         <v>56</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E45" s="15">
         <v>45096</v>
@@ -4262,7 +4242,7 @@
         <v>57</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E46" s="15">
         <v>45096</v>
@@ -4300,7 +4280,7 @@
         <v>58</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E47" s="15">
         <v>45096</v>
@@ -4338,7 +4318,7 @@
         <v>59</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E48" s="15">
         <v>45096</v>
@@ -4376,7 +4356,7 @@
         <v>60</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E49" s="15">
         <v>45096</v>
@@ -4414,7 +4394,7 @@
         <v>61</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E50" s="15">
         <v>45096</v>
@@ -4452,7 +4432,7 @@
         <v>62</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E51" s="15">
         <v>45096</v>
@@ -4490,7 +4470,7 @@
         <v>63</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E52" s="15">
         <v>45096</v>
@@ -4528,7 +4508,7 @@
         <v>64</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E53" s="15">
         <v>45096</v>
@@ -4566,7 +4546,7 @@
         <v>65</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E54" s="15">
         <v>45096</v>
@@ -4606,7 +4586,7 @@
         <v>66</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E55" s="15">
         <v>45099</v>
@@ -4644,7 +4624,7 @@
         <v>67</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E56" s="15">
         <v>45099</v>
@@ -4682,7 +4662,7 @@
         <v>68</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E57" s="15">
         <v>45099</v>
@@ -4720,7 +4700,7 @@
         <v>69</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E58" s="15">
         <v>45099</v>
@@ -4758,7 +4738,7 @@
         <v>70</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E59" s="15">
         <v>45099</v>
@@ -4796,7 +4776,7 @@
         <v>71</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E60" s="15">
         <v>45099</v>
@@ -4828,217 +4808,65 @@
       <c r="Y60" s="11"/>
       <c r="Z60" s="11"/>
     </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="13"/>
-      <c r="C61" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" s="11" t="s">
+    <row r="62" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="E62" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E61" s="15">
-        <v>45099</v>
-      </c>
-      <c r="F61" s="15">
-        <v>45104</v>
-      </c>
-      <c r="G61" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
-      <c r="Y61" s="11"/>
-      <c r="Z61" s="11"/>
-    </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="13"/>
-      <c r="C62" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" s="11" t="s">
+      <c r="G62" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H62" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E62" s="15">
-        <v>45099</v>
-      </c>
-      <c r="F62" s="15">
-        <v>45104</v>
-      </c>
-      <c r="G62" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11"/>
-      <c r="V62" s="11"/>
-      <c r="W62" s="11"/>
-      <c r="X62" s="11"/>
-      <c r="Y62" s="11"/>
-      <c r="Z62" s="11"/>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="13"/>
-      <c r="C63" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E63" s="15">
-        <v>45099</v>
-      </c>
-      <c r="F63" s="15">
-        <v>45104</v>
+      <c r="E63" s="11">
+        <f>COUNTIF(D3:D60,"完了")</f>
+        <v>50</v>
+      </c>
+      <c r="F63" s="11">
+        <f>COUNTIF(D3:D60,"作業中")</f>
+        <v>6</v>
       </c>
       <c r="G63" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
-      <c r="Y63" s="11"/>
-      <c r="Z63" s="11"/>
+        <f>COUNTIF(D3:D60,"作業前")</f>
+        <v>2</v>
+      </c>
+      <c r="H63" s="11">
+        <f>COUNTA(C3:C60)</f>
+        <v>58</v>
+      </c>
     </row>
     <row r="64" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="14"/>
-      <c r="C64" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="15">
-        <v>45099</v>
-      </c>
-      <c r="F64" s="15">
-        <v>45104</v>
-      </c>
-      <c r="G64" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
-      <c r="X64" s="11"/>
-      <c r="Y64" s="11"/>
-      <c r="Z64" s="11"/>
-    </row>
-    <row r="66" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E66" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E67" s="11">
-        <f>COUNTIF(D3:D64,"完了")</f>
-        <v>45</v>
-      </c>
-      <c r="F67" s="11">
-        <f>COUNTIF(D3:D64,"作業中")</f>
-        <v>6</v>
-      </c>
-      <c r="G67" s="11">
-        <f>COUNTIF(D3:D64,"作業前")</f>
-        <v>11</v>
-      </c>
-      <c r="H67" s="11">
-        <f>COUNTA(C3:C64)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E68" s="16">
-        <f>E67/H67</f>
-        <v>0.72580645161290325</v>
-      </c>
-      <c r="F68" s="16">
-        <f>F67/H67</f>
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="G68" s="16">
-        <f>G67/H67</f>
-        <v>0.17741935483870969</v>
-      </c>
-      <c r="H68" s="17">
-        <f>E68+F68+G68</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="23"/>
+      <c r="E64" s="16">
+        <f>E63/H63</f>
+        <v>0.86206896551724133</v>
+      </c>
+      <c r="F64" s="16">
+        <f>F63/H63</f>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="G64" s="16">
+        <f>G63/H63</f>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="H64" s="17">
+        <f>E64+F64+G64</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="69" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D3:D64">
+  <conditionalFormatting sqref="D3:D60">
     <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="作業前">
       <formula>NOT(ISERROR(SEARCH("作業前",D3)))</formula>
     </cfRule>
@@ -5055,7 +4883,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D64" xr:uid="{AC32A6D3-ADF1-41A5-BDC7-7D29FD37710D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D60" xr:uid="{AC32A6D3-ADF1-41A5-BDC7-7D29FD37710D}">
       <formula1>"完了,作業中,作業前"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5083,90 +4911,90 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C3" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>104</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="26">
         <v>45103</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
       <c r="D6" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -5176,16 +5004,16 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -5195,10 +5023,10 @@
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
       <c r="D8" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -5206,50 +5034,50 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="13"/>
       <c r="C10" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="24"/>
       <c r="C11" s="11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -5257,16 +5085,16 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -5276,10 +5104,10 @@
       <c r="B13" s="13"/>
       <c r="C13" s="25"/>
       <c r="D13" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -5289,10 +5117,10 @@
       <c r="B14" s="13"/>
       <c r="C14" s="24"/>
       <c r="D14" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -5301,13 +5129,13 @@
     <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="13"/>
       <c r="C15" s="11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -5316,13 +5144,13 @@
     <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="13"/>
       <c r="C16" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -5331,13 +5159,13 @@
     <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="24"/>
       <c r="C17" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -5345,35 +5173,35 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -5382,31 +5210,31 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="14"/>
       <c r="C20" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H3:H20">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",H3)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="作業前">
+      <formula>NOT(ISERROR(SEARCH("作業前",H3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="作業中">
       <formula>NOT(ISERROR(SEARCH("作業中",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="作業前">
-      <formula>NOT(ISERROR(SEARCH("作業前",H3)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/doc/スケジュール_チーム天然水.xlsx
+++ b/doc/スケジュール_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AB9B8C-532B-4334-8AC5-A2FD675C4814}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D6B1BC-CC4D-4C39-8DD0-8A18CB6AF766}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{71D6CB85-ED0E-4824-99B5-C03EEAFD70C7}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{71D6CB85-ED0E-4824-99B5-C03EEAFD70C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="131">
   <si>
     <t>DAO/servlet</t>
     <phoneticPr fontId="1"/>
@@ -393,9 +393,6 @@
   <si>
     <t>完了</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作業前</t>
   </si>
   <si>
     <t>作業中</t>
@@ -1201,13 +1198,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1305,13 +1302,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.86206896551724133</c:v>
+                  <c:v>0.94827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10344827586206896</c:v>
+                  <c:v>5.1724137931034482E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4482758620689655E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2484,8 +2481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF58714-42C9-4CDB-86DB-5A35FAA4D991}">
   <dimension ref="B2:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3920,7 +3917,7 @@
         <v>49</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E38" s="15">
         <v>45096</v>
@@ -4280,7 +4277,7 @@
         <v>58</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E47" s="15">
         <v>45096</v>
@@ -4318,7 +4315,7 @@
         <v>59</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E48" s="15">
         <v>45096</v>
@@ -4356,7 +4353,7 @@
         <v>60</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49" s="15">
         <v>45096</v>
@@ -4508,7 +4505,7 @@
         <v>64</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E53" s="15">
         <v>45096</v>
@@ -4546,7 +4543,7 @@
         <v>65</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E54" s="15">
         <v>45096</v>
@@ -4586,7 +4583,7 @@
         <v>66</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E55" s="15">
         <v>45099</v>
@@ -4810,30 +4807,30 @@
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="E62" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="G62" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G62" s="11" t="s">
-        <v>85</v>
-      </c>
       <c r="H62" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="E63" s="11">
         <f>COUNTIF(D3:D60,"完了")</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F63" s="11">
         <f>COUNTIF(D3:D60,"作業中")</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G63" s="11">
         <f>COUNTIF(D3:D60,"作業前")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H63" s="11">
         <f>COUNTA(C3:C60)</f>
@@ -4843,19 +4840,19 @@
     <row r="64" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="E64" s="16">
         <f>E63/H63</f>
-        <v>0.86206896551724133</v>
+        <v>0.94827586206896552</v>
       </c>
       <c r="F64" s="16">
         <f>F63/H63</f>
-        <v>0.10344827586206896</v>
+        <v>5.1724137931034482E-2</v>
       </c>
       <c r="G64" s="16">
         <f>G63/H63</f>
-        <v>3.4482758620689655E-2</v>
+        <v>0</v>
       </c>
       <c r="H64" s="17">
         <f>E64+F64+G64</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="5:8" x14ac:dyDescent="0.55000000000000004">
@@ -4911,19 +4908,19 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>131</v>
-      </c>
       <c r="E2" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>124</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>76</v>
@@ -4934,16 +4931,16 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="26">
@@ -4957,10 +4954,10 @@
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -4970,16 +4967,16 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -4991,10 +4988,10 @@
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
       <c r="D6" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -5004,16 +5001,16 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -5023,10 +5020,10 @@
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
       <c r="D8" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -5034,16 +5031,16 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -5054,13 +5051,13 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="13"/>
       <c r="C10" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -5071,13 +5068,13 @@
     <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="24"/>
       <c r="C11" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -5085,16 +5082,16 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -5104,10 +5101,10 @@
       <c r="B13" s="13"/>
       <c r="C13" s="25"/>
       <c r="D13" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -5117,10 +5114,10 @@
       <c r="B14" s="13"/>
       <c r="C14" s="24"/>
       <c r="D14" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -5129,13 +5126,13 @@
     <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="13"/>
       <c r="C15" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -5144,13 +5141,13 @@
     <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="13"/>
       <c r="C16" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -5159,13 +5156,13 @@
     <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="24"/>
       <c r="C17" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -5173,16 +5170,16 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -5192,16 +5189,16 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -5210,13 +5207,13 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="14"/>
       <c r="C20" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
